--- a/workspaceOptimisationEclipse/PouleConstructor/Matrice temps.xlsx
+++ b/workspaceOptimisationEclipse/PouleConstructor/Matrice temps.xlsx
@@ -63,9 +63,6 @@
     <t>Amneville</t>
   </si>
   <si>
-    <t>Francais_Volants</t>
-  </si>
-  <si>
     <t>Asnieres</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Wasquehal</t>
+  </si>
+  <si>
+    <t>Francais Volants</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,46 +473,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>5.99444444444</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6.3077777777800002</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>4.0594444444400004</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3.3472222222200001</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3.8875000000000002</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5.4055555555600003</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>5.8505555555599997</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2.6269444444399999</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>3.61944444444</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>5.0391666666699999</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>4.5199999999999996</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>5.8913888888899999</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>8.9447222222199994</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>8.0891666666699997</v>
